--- a/natmiOut/OldD2/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H2">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I2">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J2">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.00077445370273</v>
+        <v>1.0305975</v>
       </c>
       <c r="N2">
-        <v>1.00077445370273</v>
+        <v>2.061195</v>
       </c>
       <c r="O2">
-        <v>0.1025154708848452</v>
+        <v>0.09953130389913815</v>
       </c>
       <c r="P2">
-        <v>0.1025154708848452</v>
+        <v>0.07508903821244231</v>
       </c>
       <c r="Q2">
-        <v>38.13432747636524</v>
+        <v>39.5638413731325</v>
       </c>
       <c r="R2">
-        <v>38.13432747636524</v>
+        <v>158.25536549253</v>
       </c>
       <c r="S2">
-        <v>0.04636693064962074</v>
+        <v>0.04431427710116637</v>
       </c>
       <c r="T2">
-        <v>0.04636693064962074</v>
+        <v>0.02816824245129103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H3">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I3">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J3">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.39727362352272</v>
+        <v>1.525218666666667</v>
       </c>
       <c r="N3">
-        <v>1.39727362352272</v>
+        <v>4.575656</v>
       </c>
       <c r="O3">
-        <v>0.1431313148936096</v>
+        <v>0.147299991145562</v>
       </c>
       <c r="P3">
-        <v>0.1431313148936096</v>
+        <v>0.1666904917928634</v>
       </c>
       <c r="Q3">
-        <v>53.24285580667948</v>
+        <v>58.55196561930401</v>
       </c>
       <c r="R3">
-        <v>53.24285580667948</v>
+        <v>351.3117937158241</v>
       </c>
       <c r="S3">
-        <v>0.06473715327236625</v>
+        <v>0.06558230796653221</v>
       </c>
       <c r="T3">
-        <v>0.06473715327236625</v>
+        <v>0.06253080741109139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H4">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I4">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J4">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.4794595828037</v>
+        <v>1.729477333333333</v>
       </c>
       <c r="N4">
-        <v>1.4794595828037</v>
+        <v>5.188432</v>
       </c>
       <c r="O4">
-        <v>0.1515501272290362</v>
+        <v>0.1670265395080728</v>
       </c>
       <c r="P4">
-        <v>0.1515501272290362</v>
+        <v>0.189013833582295</v>
       </c>
       <c r="Q4">
-        <v>56.3745367499573</v>
+        <v>66.39329794068802</v>
       </c>
       <c r="R4">
-        <v>56.3745367499573</v>
+        <v>398.359787644128</v>
       </c>
       <c r="S4">
-        <v>0.06854491501154199</v>
+        <v>0.07436515010905771</v>
       </c>
       <c r="T4">
-        <v>0.06854491501154199</v>
+        <v>0.07090498983261496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H5">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I5">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J5">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.81553839442529</v>
+        <v>2.911407000000001</v>
       </c>
       <c r="N5">
-        <v>2.81553839442529</v>
+        <v>8.734221000000002</v>
       </c>
       <c r="O5">
-        <v>0.2884128818745868</v>
+        <v>0.2811729456854671</v>
       </c>
       <c r="P5">
-        <v>0.2884128818745868</v>
+        <v>0.3181864182791614</v>
       </c>
       <c r="Q5">
-        <v>107.2855754441414</v>
+        <v>111.766664212389</v>
       </c>
       <c r="R5">
-        <v>107.2855754441414</v>
+        <v>670.5999852743342</v>
       </c>
       <c r="S5">
-        <v>0.1304468484308852</v>
+        <v>0.1251865025407839</v>
       </c>
       <c r="T5">
-        <v>0.1304468484308852</v>
+        <v>0.119361659013901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H6">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I6">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J6">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.524652233971692</v>
+        <v>0.5748966666666666</v>
       </c>
       <c r="N6">
-        <v>0.524652233971692</v>
+        <v>1.72469</v>
       </c>
       <c r="O6">
-        <v>0.05374334908070132</v>
+        <v>0.05552139883960665</v>
       </c>
       <c r="P6">
-        <v>0.05374334908070132</v>
+        <v>0.06283020932741304</v>
       </c>
       <c r="Q6">
-        <v>19.99177739545503</v>
+        <v>22.06983863821</v>
       </c>
       <c r="R6">
-        <v>19.99177739545503</v>
+        <v>132.41903182926</v>
       </c>
       <c r="S6">
-        <v>0.02430768856831749</v>
+        <v>0.02471976711684585</v>
       </c>
       <c r="T6">
-        <v>0.02430768856831749</v>
+        <v>0.02356957302599566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.1048170597015</v>
+        <v>38.38922700000001</v>
       </c>
       <c r="H7">
-        <v>38.1048170597015</v>
+        <v>76.77845400000001</v>
       </c>
       <c r="I7">
-        <v>0.4522920321139073</v>
+        <v>0.4452295445267456</v>
       </c>
       <c r="J7">
-        <v>0.4522920321139073</v>
+        <v>0.3751312191747254</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.54448145932035</v>
+        <v>2.582909</v>
       </c>
       <c r="N7">
-        <v>2.54448145932035</v>
+        <v>5.165818</v>
       </c>
       <c r="O7">
-        <v>0.2606468560372208</v>
+        <v>0.2494478209221534</v>
       </c>
       <c r="P7">
-        <v>0.2606468560372208</v>
+        <v>0.1881900088058249</v>
       </c>
       <c r="Q7">
-        <v>96.95700051920424</v>
+        <v>99.15587992134301</v>
       </c>
       <c r="R7">
-        <v>96.95700051920424</v>
+        <v>396.6235196853721</v>
       </c>
       <c r="S7">
-        <v>0.1178884961811756</v>
+        <v>0.1110615396923596</v>
       </c>
       <c r="T7">
-        <v>0.1178884961811756</v>
+        <v>0.07059594743983141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H8">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I8">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J8">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.00077445370273</v>
+        <v>1.0305975</v>
       </c>
       <c r="N8">
-        <v>1.00077445370273</v>
+        <v>2.061195</v>
       </c>
       <c r="O8">
-        <v>0.1025154708848452</v>
+        <v>0.09953130389913815</v>
       </c>
       <c r="P8">
-        <v>0.1025154708848452</v>
+        <v>0.07508903821244231</v>
       </c>
       <c r="Q8">
-        <v>2.754289889320874</v>
+        <v>3.251298075075001</v>
       </c>
       <c r="R8">
-        <v>2.754289889320874</v>
+        <v>19.50778845045</v>
       </c>
       <c r="S8">
-        <v>0.003348897875968652</v>
+        <v>0.003641681870032096</v>
       </c>
       <c r="T8">
-        <v>0.003348897875968652</v>
+        <v>0.003472236868877018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H9">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I9">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J9">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.39727362352272</v>
+        <v>1.525218666666667</v>
       </c>
       <c r="N9">
-        <v>1.39727362352272</v>
+        <v>4.575656</v>
       </c>
       <c r="O9">
-        <v>0.1431313148936096</v>
+        <v>0.147299991145562</v>
       </c>
       <c r="P9">
-        <v>0.1431313148936096</v>
+        <v>0.1666904917928634</v>
       </c>
       <c r="Q9">
-        <v>3.845518437890228</v>
+        <v>4.811714093040001</v>
       </c>
       <c r="R9">
-        <v>3.845518437890228</v>
+        <v>43.30542683736001</v>
       </c>
       <c r="S9">
-        <v>0.004675705552484262</v>
+        <v>0.00538945724808621</v>
       </c>
       <c r="T9">
-        <v>0.004675705552484262</v>
+        <v>0.007708034156156183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H10">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I10">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J10">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.4794595828037</v>
+        <v>1.729477333333333</v>
       </c>
       <c r="N10">
-        <v>1.4794595828037</v>
+        <v>5.188432</v>
       </c>
       <c r="O10">
-        <v>0.1515501272290362</v>
+        <v>0.1670265395080728</v>
       </c>
       <c r="P10">
-        <v>0.1515501272290362</v>
+        <v>0.189013833582295</v>
       </c>
       <c r="Q10">
-        <v>4.071707221840722</v>
+        <v>5.456103206880001</v>
       </c>
       <c r="R10">
-        <v>4.071707221840722</v>
+        <v>49.10492886192</v>
       </c>
       <c r="S10">
-        <v>0.004950724947166248</v>
+        <v>0.006111218249055966</v>
       </c>
       <c r="T10">
-        <v>0.004950724947166248</v>
+        <v>0.008740301078772907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H11">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I11">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J11">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.81553839442529</v>
+        <v>2.911407000000001</v>
       </c>
       <c r="N11">
-        <v>2.81553839442529</v>
+        <v>8.734221000000002</v>
       </c>
       <c r="O11">
-        <v>0.2884128818745868</v>
+        <v>0.2811729456854671</v>
       </c>
       <c r="P11">
-        <v>0.2884128818745868</v>
+        <v>0.3181864182791614</v>
       </c>
       <c r="Q11">
-        <v>7.748807839836998</v>
+        <v>9.184819461390003</v>
       </c>
       <c r="R11">
-        <v>7.748807839836998</v>
+        <v>82.66337515251003</v>
       </c>
       <c r="S11">
-        <v>0.009421653914039473</v>
+        <v>0.01028764196321506</v>
       </c>
       <c r="T11">
-        <v>0.009421653914039473</v>
+        <v>0.01471344738228062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H12">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I12">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J12">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.524652233971692</v>
+        <v>0.5748966666666666</v>
       </c>
       <c r="N12">
-        <v>0.524652233971692</v>
+        <v>1.72469</v>
       </c>
       <c r="O12">
-        <v>0.05374334908070132</v>
+        <v>0.05552139883960665</v>
       </c>
       <c r="P12">
-        <v>0.05374334908070132</v>
+        <v>0.06283020932741304</v>
       </c>
       <c r="Q12">
-        <v>1.443926089531335</v>
+        <v>1.8136667571</v>
       </c>
       <c r="R12">
-        <v>1.443926089531335</v>
+        <v>16.3230008139</v>
       </c>
       <c r="S12">
-        <v>0.001755647084584664</v>
+        <v>0.002031433967326609</v>
       </c>
       <c r="T12">
-        <v>0.001755647084584664</v>
+        <v>0.002905369072496054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.75215847000328</v>
+        <v>3.154770000000001</v>
       </c>
       <c r="H13">
-        <v>2.75215847000328</v>
+        <v>9.464310000000001</v>
       </c>
       <c r="I13">
-        <v>0.03266724375416898</v>
+        <v>0.03658830666704076</v>
       </c>
       <c r="J13">
-        <v>0.03266724375416898</v>
+        <v>0.04624159466596638</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.54448145932035</v>
+        <v>2.582909</v>
       </c>
       <c r="N13">
-        <v>2.54448145932035</v>
+        <v>5.165818</v>
       </c>
       <c r="O13">
-        <v>0.2606468560372208</v>
+        <v>0.2494478209221534</v>
       </c>
       <c r="P13">
-        <v>0.2606468560372208</v>
+        <v>0.1881900088058249</v>
       </c>
       <c r="Q13">
-        <v>7.002816200034808</v>
+        <v>8.148483825930001</v>
       </c>
       <c r="R13">
-        <v>7.002816200034808</v>
+        <v>48.89090295558</v>
       </c>
       <c r="S13">
-        <v>0.008514614379925681</v>
+        <v>0.009126873369324814</v>
       </c>
       <c r="T13">
-        <v>0.008514614379925681</v>
+        <v>0.008702206107383601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H14">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I14">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J14">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.00077445370273</v>
+        <v>1.0305975</v>
       </c>
       <c r="N14">
-        <v>1.00077445370273</v>
+        <v>2.061195</v>
       </c>
       <c r="O14">
-        <v>0.1025154708848452</v>
+        <v>0.09953130389913815</v>
       </c>
       <c r="P14">
-        <v>0.1025154708848452</v>
+        <v>0.07508903821244231</v>
       </c>
       <c r="Q14">
-        <v>2.327952547037457</v>
+        <v>3.05411522953</v>
       </c>
       <c r="R14">
-        <v>2.327952547037457</v>
+        <v>18.32469137718</v>
       </c>
       <c r="S14">
-        <v>0.002830520988497632</v>
+        <v>0.003420823253835855</v>
       </c>
       <c r="T14">
-        <v>0.002830520988497632</v>
+        <v>0.003261654655126703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H15">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I15">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J15">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.39727362352272</v>
+        <v>1.525218666666667</v>
       </c>
       <c r="N15">
-        <v>1.39727362352272</v>
+        <v>4.575656</v>
       </c>
       <c r="O15">
-        <v>0.1431313148936096</v>
+        <v>0.147299991145562</v>
       </c>
       <c r="P15">
-        <v>0.1431313148936096</v>
+        <v>0.1666904917928634</v>
       </c>
       <c r="Q15">
-        <v>3.250269507532994</v>
+        <v>4.519896039171556</v>
       </c>
       <c r="R15">
-        <v>3.250269507532994</v>
+        <v>40.679064352544</v>
       </c>
       <c r="S15">
-        <v>0.003951951714416957</v>
+        <v>0.005062600561439215</v>
       </c>
       <c r="T15">
-        <v>0.003951951714416957</v>
+        <v>0.007240561757940627</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H16">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I16">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J16">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.4794595828037</v>
+        <v>1.729477333333333</v>
       </c>
       <c r="N16">
-        <v>1.4794595828037</v>
+        <v>5.188432</v>
       </c>
       <c r="O16">
-        <v>0.1515501272290362</v>
+        <v>0.1670265395080728</v>
       </c>
       <c r="P16">
-        <v>0.1515501272290362</v>
+        <v>0.189013833582295</v>
       </c>
       <c r="Q16">
-        <v>3.441446463070775</v>
+        <v>5.125204614663111</v>
       </c>
       <c r="R16">
-        <v>3.441446463070775</v>
+        <v>46.126841531968</v>
       </c>
       <c r="S16">
-        <v>0.004184400776085078</v>
+        <v>0.005740588618591342</v>
       </c>
       <c r="T16">
-        <v>0.004184400776085078</v>
+        <v>0.008210224353158409</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H17">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I17">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J17">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.81553839442529</v>
+        <v>2.911407000000001</v>
       </c>
       <c r="N17">
-        <v>2.81553839442529</v>
+        <v>8.734221000000002</v>
       </c>
       <c r="O17">
-        <v>0.2884128818745868</v>
+        <v>0.2811729456854671</v>
       </c>
       <c r="P17">
-        <v>0.2884128818745868</v>
+        <v>0.3181864182791614</v>
       </c>
       <c r="Q17">
-        <v>6.549367594599929</v>
+        <v>8.627783841956001</v>
       </c>
       <c r="R17">
-        <v>6.549367594599929</v>
+        <v>77.65005457760401</v>
       </c>
       <c r="S17">
-        <v>0.00796327333282325</v>
+        <v>0.009663723002414122</v>
       </c>
       <c r="T17">
-        <v>0.00796327333282325</v>
+        <v>0.01382111473371292</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H18">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I18">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J18">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.524652233971692</v>
+        <v>0.5748966666666666</v>
       </c>
       <c r="N18">
-        <v>0.524652233971692</v>
+        <v>1.72469</v>
       </c>
       <c r="O18">
-        <v>0.05374334908070132</v>
+        <v>0.05552139883960665</v>
       </c>
       <c r="P18">
-        <v>0.05374334908070132</v>
+        <v>0.06283020932741304</v>
       </c>
       <c r="Q18">
-        <v>1.220420345327966</v>
+        <v>1.703672544395555</v>
       </c>
       <c r="R18">
-        <v>1.220420345327966</v>
+        <v>15.33305289956</v>
       </c>
       <c r="S18">
-        <v>0.001483889955848294</v>
+        <v>0.001908232734783515</v>
       </c>
       <c r="T18">
-        <v>0.001483889955848294</v>
+        <v>0.002729165929060798</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.3261510507431</v>
+        <v>2.963441333333333</v>
       </c>
       <c r="H19">
-        <v>2.3261510507431</v>
+        <v>8.890324</v>
       </c>
       <c r="I19">
-        <v>0.02761067148271828</v>
+        <v>0.03436932020203823</v>
       </c>
       <c r="J19">
-        <v>0.02761067148271828</v>
+        <v>0.04343716117256439</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.54448145932035</v>
+        <v>2.582909</v>
       </c>
       <c r="N19">
-        <v>2.54448145932035</v>
+        <v>5.165818</v>
       </c>
       <c r="O19">
-        <v>0.2606468560372208</v>
+        <v>0.2494478209221534</v>
       </c>
       <c r="P19">
-        <v>0.2606468560372208</v>
+        <v>0.1881900088058249</v>
       </c>
       <c r="Q19">
-        <v>5.918848220194368</v>
+        <v>7.654299290838667</v>
       </c>
       <c r="R19">
-        <v>5.918848220194368</v>
+        <v>45.925795745032</v>
       </c>
       <c r="S19">
-        <v>0.007196634715047069</v>
+        <v>0.008573352030974183</v>
       </c>
       <c r="T19">
-        <v>0.007196634715047069</v>
+        <v>0.008174439743564929</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H20">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I20">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J20">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.00077445370273</v>
+        <v>1.0305975</v>
       </c>
       <c r="N20">
-        <v>1.00077445370273</v>
+        <v>2.061195</v>
       </c>
       <c r="O20">
-        <v>0.1025154708848452</v>
+        <v>0.09953130389913815</v>
       </c>
       <c r="P20">
-        <v>0.1025154708848452</v>
+        <v>0.07508903821244231</v>
       </c>
       <c r="Q20">
-        <v>6.862016428888404</v>
+        <v>7.372405324720001</v>
       </c>
       <c r="R20">
-        <v>6.862016428888404</v>
+        <v>44.23443194832</v>
       </c>
       <c r="S20">
-        <v>0.008343418146603514</v>
+        <v>0.008257611018621106</v>
       </c>
       <c r="T20">
-        <v>0.008343418146603514</v>
+        <v>0.007873389947554262</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H21">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I21">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J21">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.39727362352272</v>
+        <v>1.525218666666667</v>
       </c>
       <c r="N21">
-        <v>1.39727362352272</v>
+        <v>4.575656</v>
       </c>
       <c r="O21">
-        <v>0.1431313148936096</v>
+        <v>0.147299991145562</v>
       </c>
       <c r="P21">
-        <v>0.1431313148936096</v>
+        <v>0.1666904917928634</v>
       </c>
       <c r="Q21">
-        <v>9.580694755737028</v>
+        <v>10.91069037087289</v>
       </c>
       <c r="R21">
-        <v>9.580694755737028</v>
+        <v>98.19621333785601</v>
       </c>
       <c r="S21">
-        <v>0.01164901648232201</v>
+        <v>0.01222073842375249</v>
       </c>
       <c r="T21">
-        <v>0.01164901648232201</v>
+        <v>0.01747817356138859</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H22">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I22">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J22">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.4794595828037</v>
+        <v>1.729477333333333</v>
       </c>
       <c r="N22">
-        <v>1.4794595828037</v>
+        <v>5.188432</v>
       </c>
       <c r="O22">
-        <v>0.1515501272290362</v>
+        <v>0.1670265395080728</v>
       </c>
       <c r="P22">
-        <v>0.1515501272290362</v>
+        <v>0.189013833582295</v>
       </c>
       <c r="Q22">
-        <v>10.14421973454065</v>
+        <v>12.37185991742578</v>
       </c>
       <c r="R22">
-        <v>10.14421973454065</v>
+        <v>111.346739256832</v>
       </c>
       <c r="S22">
-        <v>0.01233419766527878</v>
+        <v>0.01385735079329106</v>
       </c>
       <c r="T22">
-        <v>0.01233419766527878</v>
+        <v>0.01981886641116869</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H23">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I23">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J23">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.81553839442529</v>
+        <v>2.911407000000001</v>
       </c>
       <c r="N23">
-        <v>2.81553839442529</v>
+        <v>8.734221000000002</v>
       </c>
       <c r="O23">
-        <v>0.2884128818745868</v>
+        <v>0.2811729456854671</v>
       </c>
       <c r="P23">
-        <v>0.2884128818745868</v>
+        <v>0.3181864182791614</v>
       </c>
       <c r="Q23">
-        <v>19.30531964243294</v>
+        <v>20.826823730144</v>
       </c>
       <c r="R23">
-        <v>19.30531964243294</v>
+        <v>187.441413571296</v>
       </c>
       <c r="S23">
-        <v>0.02347303535336316</v>
+        <v>0.02332750324243036</v>
       </c>
       <c r="T23">
-        <v>0.02347303535336316</v>
+        <v>0.03336313537589473</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H24">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I24">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J24">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.524652233971692</v>
+        <v>0.5748966666666666</v>
       </c>
       <c r="N24">
-        <v>0.524652233971692</v>
+        <v>1.72469</v>
       </c>
       <c r="O24">
-        <v>0.05374334908070132</v>
+        <v>0.05552139883960665</v>
       </c>
       <c r="P24">
-        <v>0.05374334908070132</v>
+        <v>0.06283020932741304</v>
       </c>
       <c r="Q24">
-        <v>3.597386239873133</v>
+        <v>4.112537869048889</v>
       </c>
       <c r="R24">
-        <v>3.597386239873133</v>
+        <v>37.01284082143999</v>
       </c>
       <c r="S24">
-        <v>0.00437400550481652</v>
+        <v>0.004606330841317984</v>
       </c>
       <c r="T24">
-        <v>0.00437400550481652</v>
+        <v>0.006588002061254447</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.85670622736209</v>
+        <v>7.153525333333334</v>
       </c>
       <c r="H25">
-        <v>6.85670622736209</v>
+        <v>21.460576</v>
       </c>
       <c r="I25">
-        <v>0.08138691725832882</v>
+        <v>0.08296496373632466</v>
       </c>
       <c r="J25">
-        <v>0.08138691725832882</v>
+        <v>0.1048540524021472</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.54448145932035</v>
+        <v>2.582909</v>
       </c>
       <c r="N25">
-        <v>2.54448145932035</v>
+        <v>5.165818</v>
       </c>
       <c r="O25">
-        <v>0.2606468560372208</v>
+        <v>0.2494478209221534</v>
       </c>
       <c r="P25">
-        <v>0.2606468560372208</v>
+        <v>0.1881900088058249</v>
       </c>
       <c r="Q25">
-        <v>17.44676186752922</v>
+        <v>18.47690496519467</v>
       </c>
       <c r="R25">
-        <v>17.44676186752922</v>
+        <v>110.861429791168</v>
       </c>
       <c r="S25">
-        <v>0.02121324410594483</v>
+        <v>0.02069542941691167</v>
       </c>
       <c r="T25">
-        <v>0.02121324410594483</v>
+        <v>0.01973248504488652</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H26">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I26">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J26">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.00077445370273</v>
+        <v>1.0305975</v>
       </c>
       <c r="N26">
-        <v>1.00077445370273</v>
+        <v>2.061195</v>
       </c>
       <c r="O26">
-        <v>0.1025154708848452</v>
+        <v>0.09953130389913815</v>
       </c>
       <c r="P26">
-        <v>0.1025154708848452</v>
+        <v>0.07508903821244231</v>
       </c>
       <c r="Q26">
-        <v>18.72688370860472</v>
+        <v>19.5321837238725</v>
       </c>
       <c r="R26">
-        <v>18.72688370860472</v>
+        <v>117.193102343235</v>
       </c>
       <c r="S26">
-        <v>0.02276972417406717</v>
+        <v>0.02187741563735944</v>
       </c>
       <c r="T26">
-        <v>0.02276972417406717</v>
+        <v>0.0208594742437281</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H27">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I27">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J27">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.39727362352272</v>
+        <v>1.525218666666667</v>
       </c>
       <c r="N27">
-        <v>1.39727362352272</v>
+        <v>4.575656</v>
       </c>
       <c r="O27">
-        <v>0.1431313148936096</v>
+        <v>0.147299991145562</v>
       </c>
       <c r="P27">
-        <v>0.1431313148936096</v>
+        <v>0.1666904917928634</v>
       </c>
       <c r="Q27">
-        <v>26.14633153354175</v>
+        <v>28.90638800929867</v>
       </c>
       <c r="R27">
-        <v>26.14633153354175</v>
+        <v>260.157492083688</v>
       </c>
       <c r="S27">
-        <v>0.03179091441193221</v>
+        <v>0.03237718188577583</v>
       </c>
       <c r="T27">
-        <v>0.03179091441193221</v>
+        <v>0.0463060401758009</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H28">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I28">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J28">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.4794595828037</v>
+        <v>1.729477333333333</v>
       </c>
       <c r="N28">
-        <v>1.4794595828037</v>
+        <v>5.188432</v>
       </c>
       <c r="O28">
-        <v>0.1515501272290362</v>
+        <v>0.1670265395080728</v>
       </c>
       <c r="P28">
-        <v>0.1515501272290362</v>
+        <v>0.189013833582295</v>
       </c>
       <c r="Q28">
-        <v>27.68422740632369</v>
+        <v>32.77755769923733</v>
       </c>
       <c r="R28">
-        <v>27.68422740632369</v>
+        <v>294.9980192931359</v>
       </c>
       <c r="S28">
-        <v>0.03366081788207503</v>
+        <v>0.03671316343841836</v>
       </c>
       <c r="T28">
-        <v>0.03366081788207503</v>
+        <v>0.05250738705912572</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H29">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I29">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J29">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.81553839442529</v>
+        <v>2.911407000000001</v>
       </c>
       <c r="N29">
-        <v>2.81553839442529</v>
+        <v>8.734221000000002</v>
       </c>
       <c r="O29">
-        <v>0.2884128818745868</v>
+        <v>0.2811729456854671</v>
       </c>
       <c r="P29">
-        <v>0.2884128818745868</v>
+        <v>0.3181864182791614</v>
       </c>
       <c r="Q29">
-        <v>52.68545764176335</v>
+        <v>55.177832683437</v>
       </c>
       <c r="R29">
-        <v>52.68545764176335</v>
+        <v>496.600494150933</v>
       </c>
       <c r="S29">
-        <v>0.0640594215863175</v>
+        <v>0.06180304243753527</v>
       </c>
       <c r="T29">
-        <v>0.0640594215863175</v>
+        <v>0.08839108283715469</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H30">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I30">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J30">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.524652233971692</v>
+        <v>0.5748966666666666</v>
       </c>
       <c r="N30">
-        <v>0.524652233971692</v>
+        <v>1.72469</v>
       </c>
       <c r="O30">
-        <v>0.05374334908070132</v>
+        <v>0.05552139883960665</v>
       </c>
       <c r="P30">
-        <v>0.05374334908070132</v>
+        <v>0.06283020932741304</v>
       </c>
       <c r="Q30">
-        <v>9.817498175234194</v>
+        <v>10.89560892159666</v>
       </c>
       <c r="R30">
-        <v>9.817498175234194</v>
+        <v>98.06048029436998</v>
       </c>
       <c r="S30">
-        <v>0.01193694204587687</v>
+        <v>0.0122038461428435</v>
       </c>
       <c r="T30">
-        <v>0.01193694204587687</v>
+        <v>0.01745401411968077</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>18.712391827467</v>
+        <v>18.952291</v>
       </c>
       <c r="H31">
-        <v>18.712391827467</v>
+        <v>56.85687299999999</v>
       </c>
       <c r="I31">
-        <v>0.2221101261842148</v>
+        <v>0.2198043708894773</v>
       </c>
       <c r="J31">
-        <v>0.2221101261842148</v>
+        <v>0.2777965298305241</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.54448145932035</v>
+        <v>2.582909</v>
       </c>
       <c r="N31">
-        <v>2.54448145932035</v>
+        <v>5.165818</v>
       </c>
       <c r="O31">
-        <v>0.2606468560372208</v>
+        <v>0.2494478209221534</v>
       </c>
       <c r="P31">
-        <v>0.2606468560372208</v>
+        <v>0.1881900088058249</v>
       </c>
       <c r="Q31">
-        <v>47.61333406452742</v>
+        <v>48.952042994519</v>
       </c>
       <c r="R31">
-        <v>47.61333406452742</v>
+        <v>293.7122579671139</v>
       </c>
       <c r="S31">
-        <v>0.05789230608394597</v>
+        <v>0.05482972134754494</v>
       </c>
       <c r="T31">
-        <v>0.05789230608394597</v>
+        <v>0.05227853139503394</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H32">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I32">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J32">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.00077445370273</v>
+        <v>1.0305975</v>
       </c>
       <c r="N32">
-        <v>1.00077445370273</v>
+        <v>2.061195</v>
       </c>
       <c r="O32">
-        <v>0.1025154708848452</v>
+        <v>0.09953130389913815</v>
       </c>
       <c r="P32">
-        <v>0.1025154708848452</v>
+        <v>0.07508903821244231</v>
       </c>
       <c r="Q32">
-        <v>15.50803708395566</v>
+        <v>16.08782742621375</v>
       </c>
       <c r="R32">
-        <v>15.50803708395566</v>
+        <v>64.351309704855</v>
       </c>
       <c r="S32">
-        <v>0.01885597905008749</v>
+        <v>0.01801949501812326</v>
       </c>
       <c r="T32">
-        <v>0.01885597905008749</v>
+        <v>0.0114540400458652</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H33">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I33">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J33">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.39727362352272</v>
+        <v>1.525218666666667</v>
       </c>
       <c r="N33">
-        <v>1.39727362352272</v>
+        <v>4.575656</v>
       </c>
       <c r="O33">
-        <v>0.1431313148936096</v>
+        <v>0.147299991145562</v>
       </c>
       <c r="P33">
-        <v>0.1431313148936096</v>
+        <v>0.1666904917928634</v>
       </c>
       <c r="Q33">
-        <v>21.65220254159284</v>
+        <v>23.80896004169733</v>
       </c>
       <c r="R33">
-        <v>21.65220254159284</v>
+        <v>142.853760250184</v>
       </c>
       <c r="S33">
-        <v>0.02632657346008788</v>
+        <v>0.02666770505997599</v>
       </c>
       <c r="T33">
-        <v>0.02632657346008788</v>
+        <v>0.02542687473048566</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H34">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I34">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J34">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.4794595828037</v>
+        <v>1.729477333333333</v>
       </c>
       <c r="N34">
-        <v>1.4794595828037</v>
+        <v>5.188432</v>
       </c>
       <c r="O34">
-        <v>0.1515501272290362</v>
+        <v>0.1670265395080728</v>
       </c>
       <c r="P34">
-        <v>0.1515501272290362</v>
+        <v>0.189013833582295</v>
       </c>
       <c r="Q34">
-        <v>22.92575913528313</v>
+        <v>26.99747755667466</v>
       </c>
       <c r="R34">
-        <v>22.92575913528313</v>
+        <v>161.984865340048</v>
       </c>
       <c r="S34">
-        <v>0.02787507094688907</v>
+        <v>0.03023906829965831</v>
       </c>
       <c r="T34">
-        <v>0.02787507094688907</v>
+        <v>0.02883206484745426</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H35">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I35">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J35">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.81553839442529</v>
+        <v>2.911407000000001</v>
       </c>
       <c r="N35">
-        <v>2.81553839442529</v>
+        <v>8.734221000000002</v>
       </c>
       <c r="O35">
-        <v>0.2884128818745868</v>
+        <v>0.2811729456854671</v>
       </c>
       <c r="P35">
-        <v>0.2884128818745868</v>
+        <v>0.3181864182791614</v>
       </c>
       <c r="Q35">
-        <v>43.62968466121355</v>
+        <v>45.4476295386615</v>
       </c>
       <c r="R35">
-        <v>43.62968466121355</v>
+        <v>272.685777231969</v>
       </c>
       <c r="S35">
-        <v>0.0530486492571582</v>
+        <v>0.05090453249908835</v>
       </c>
       <c r="T35">
-        <v>0.0530486492571582</v>
+        <v>0.04853597893621749</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H36">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I36">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J36">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.524652233971692</v>
+        <v>0.5748966666666666</v>
       </c>
       <c r="N36">
-        <v>0.524652233971692</v>
+        <v>1.72469</v>
       </c>
       <c r="O36">
-        <v>0.05374334908070132</v>
+        <v>0.05552139883960665</v>
       </c>
       <c r="P36">
-        <v>0.05374334908070132</v>
+        <v>0.06283020932741304</v>
       </c>
       <c r="Q36">
-        <v>8.130029968800537</v>
+        <v>8.974248784068331</v>
       </c>
       <c r="R36">
-        <v>8.130029968800537</v>
+        <v>53.84549270440999</v>
       </c>
       <c r="S36">
-        <v>0.009885175921257469</v>
+        <v>0.01005178803648919</v>
       </c>
       <c r="T36">
-        <v>0.009885175921257469</v>
+        <v>0.00958408511892531</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.4960361214038</v>
+        <v>15.6101945</v>
       </c>
       <c r="H37">
-        <v>15.4960361214038</v>
+        <v>31.220389</v>
       </c>
       <c r="I37">
-        <v>0.1839330092066617</v>
+        <v>0.1810434939783733</v>
       </c>
       <c r="J37">
-        <v>0.1839330092066617</v>
+        <v>0.1525394427540724</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.54448145932035</v>
+        <v>2.582909</v>
       </c>
       <c r="N37">
-        <v>2.54448145932035</v>
+        <v>5.165818</v>
       </c>
       <c r="O37">
-        <v>0.2606468560372208</v>
+        <v>0.2494478209221534</v>
       </c>
       <c r="P37">
-        <v>0.2606468560372208</v>
+        <v>0.1881900088058249</v>
       </c>
       <c r="Q37">
-        <v>39.4293766038704</v>
+        <v>40.31971186580049</v>
       </c>
       <c r="R37">
-        <v>39.4293766038704</v>
+        <v>161.278847463202</v>
       </c>
       <c r="S37">
-        <v>0.04794156057118155</v>
+        <v>0.04516090506503823</v>
       </c>
       <c r="T37">
-        <v>0.04794156057118155</v>
+        <v>0.02870639907512452</v>
       </c>
     </row>
   </sheetData>
